--- a/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
+++ b/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18400"/>
+    <workbookView windowWidth="28000" windowHeight="14660"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_SpaceHeatingT" sheetId="1" r:id="rId1"/>
@@ -69,8 +69,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -95,8 +95,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,123 +224,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,19 +247,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,157 +397,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,11 +435,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,6 +498,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -482,195 +532,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,8 +744,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L3" totalsRowShown="0">
-  <autoFilter ref="A1:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L2" totalsRowShown="0">
+  <autoFilter ref="A1:L2"/>
   <tableColumns count="12">
     <tableColumn id="1" name="ID_SpaceHeatingTank"/>
     <tableColumn id="2" name="size"/>
@@ -1022,13 +1022,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="9.5"/>
@@ -1124,74 +1124,36 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>1e-6</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>3.49</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1e-6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
+++ b/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4C80640-772A-4075-84DE-1CBF1FE40A56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0583AD5-EC36-4915-94A9-B737FAD1AC28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Spa" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID_SpaceHeatingTank</t>
   </si>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -907,10 +907,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -957,74 +959,36 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.57</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
+++ b/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/Flex/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4C80640-772A-4075-84DE-1CBF1FE40A56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB1F587-47D2-2E41-97C3-831B562BF23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="6360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Spa" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID_SpaceHeatingTank</t>
   </si>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,48 +555,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,7 +612,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -907,14 +907,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -952,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -987,44 +989,6 @@
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
+++ b/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/Flex/data/input_operation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB1F587-47D2-2E41-97C3-831B562BF23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4C80640-772A-4075-84DE-1CBF1FE40A56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="6360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Spa" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>ID_SpaceHeatingTank</t>
   </si>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,48 +555,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,7 +612,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -907,16 +907,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -989,6 +987,44 @@
         <v>20</v>
       </c>
       <c r="L2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
+++ b/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0583AD5-EC36-4915-94A9-B737FAD1AC28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F165D416-B26F-4D88-9715-7AD95E55BDC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Spa" sheetId="1" r:id="rId1"/>
@@ -914,9 +914,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>

--- a/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
+++ b/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F165D416-B26F-4D88-9715-7AD95E55BDC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD6D70D-5CA6-4346-96F8-7A9B40E9E088}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,7 +911,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
+++ b/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Desktop/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4C80640-772A-4075-84DE-1CBF1FE40A56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F0FA49-D4B8-4C47-97FE-427D026EF957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="6360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Spa" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID_SpaceHeatingTank</t>
   </si>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,48 +555,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,7 +612,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -907,14 +907,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -952,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -987,44 +989,6 @@
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
+++ b/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Desktop/input_operation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F0FA49-D4B8-4C47-97FE-427D026EF957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4C80640-772A-4075-84DE-1CBF1FE40A56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="6360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Spa" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>ID_SpaceHeatingTank</t>
   </si>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,48 +555,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,7 +612,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -907,16 +907,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -989,6 +987,44 @@
         <v>20</v>
       </c>
       <c r="L2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
+++ b/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4C80640-772A-4075-84DE-1CBF1FE40A56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59FED12-67B9-F24E-93BC-93C77ED1BD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="6360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Spa" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID_SpaceHeatingTank</t>
   </si>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,48 +555,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,7 +612,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -907,14 +907,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -952,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -987,44 +989,6 @@
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
+++ b/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4C80640-772A-4075-84DE-1CBF1FE40A56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EC0A22-33DB-3349-8FBC-A1E40E0EEEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
+    <workbookView xWindow="12420" yWindow="-12720" windowWidth="19700" windowHeight="12400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Spa" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,48 +555,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,7 +612,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -907,14 +907,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -952,7 +957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -990,7 +995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>

--- a/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
+++ b/data/input_operation/OperationScenario_Component_SpaceHeatingTank.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\OneDrive\PycharmProjects\FLEX\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD6D70D-5CA6-4346-96F8-7A9B40E9E088}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{FDD6D70D-5CA6-4346-96F8-7A9B40E9E088}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BD7EB4AD-7351-4FAF-94E8-0803D8CF4741}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Spa" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>ID_SpaceHeatingTank</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>size_unit</t>
-  </si>
-  <si>
-    <t>surface_area</t>
-  </si>
-  <si>
-    <t>surface_area_unit</t>
   </si>
   <si>
     <t>loss</t>
@@ -59,9 +53,6 @@
   </si>
   <si>
     <t>L</t>
-  </si>
-  <si>
-    <t>m2</t>
   </si>
   <si>
     <t>W/m2K</t>
@@ -908,18 +899,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -950,49 +945,293 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>332.44702245000002</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>45</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>332.44702245000002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>45</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>283.03863135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>45</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>332.06458005000002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>45</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>332.06458005000002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>789.8128207499999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>789.8128207499999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0.2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>45</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>586.26078000000007</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>586.26078000000007</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
